--- a/DxLibEx機能表.xlsx
+++ b/DxLibEx機能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DxLibラップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DxLibの関数を名前空間の中に入れ、引数を調整する</t>
     <rPh sb="6" eb="8">
       <t>カンスウ</t>
@@ -72,10 +68,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DxLibEx機能表</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>関数</t>
     <rPh sb="0" eb="2">
       <t>カンスウ</t>
@@ -121,6 +113,202 @@
     <rPh sb="2" eb="3">
       <t>ズ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DxLibラップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>協議中</t>
+    <rPh sb="0" eb="3">
+      <t>キョウギチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定なし</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案</t>
+    <rPh sb="0" eb="1">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンドルの削除し忘れを防ぐ</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装中</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案</t>
+    <rPh sb="0" eb="1">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像サイズなどをメンバ関数で取得できるようにする？</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー入力、パッド入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフィック系</t>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MakeKeyInput系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンドル系ユニークポインタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出力ラッパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考：vicさんの物も候補</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c++のiostreamのインターフェースに合わせる</t>
+    <rPh sb="22" eb="23">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetNowCount系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetNowCountの誤用を防ぐ</t>
+    <rPh sb="12" eb="14">
+      <t>ゴヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装済み</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DxAlloc系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニークポインタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DxMath系</t>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>std::pair, std::tupleを座標として受け取るオーバーロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetColorの一部の色((0, 0, 255)等)のラッパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DxLibEx機能表</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -128,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +329,15 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -188,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,6 +397,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,27 +708,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E32"/>
+  <dimension ref="B1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="5"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -535,200 +741,331 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DxLibEx機能表.xlsx
+++ b/DxLibEx機能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>機能</t>
     <phoneticPr fontId="1"/>
@@ -309,6 +309,52 @@
   </si>
   <si>
     <t>DxLibEx機能表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標系クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二次、三次の座標を表現するクラス</t>
+    <rPh sb="0" eb="2">
+      <t>ニジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装中</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yumetodo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nameless</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>協議中</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -711,7 +757,7 @@
   <dimension ref="B1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -790,10 +836,10 @@
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
@@ -822,10 +868,10 @@
         <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
@@ -944,11 +990,21 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
